--- a/results/mp/deberta/corona/confidence/84/stop-words-desired-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-desired-0.5/avg_0.004_scores.xlsx
@@ -103,18 +103,18 @@
     <t>support</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
@@ -136,10 +136,10 @@
     <t>help</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>sure</t>
@@ -1231,25 +1231,25 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.7412280701754386</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L19">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="N19">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O19">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1257,25 +1257,25 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.7333333333333333</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L20">
         <v>33</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N20">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="O20">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1283,25 +1283,25 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.7173913043478261</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1309,25 +1309,25 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.7111111111111111</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L22">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="M22">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="N22">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1517,25 +1517,25 @@
         <v>40</v>
       </c>
       <c r="K30">
-        <v>0.636085626911315</v>
+        <v>0.6162790697674418</v>
       </c>
       <c r="L30">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c r="M30">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="N30">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O30">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>119</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1543,25 +1543,25 @@
         <v>41</v>
       </c>
       <c r="K31">
-        <v>0.6162790697674418</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L31">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="M31">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="N31">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>33</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="10:17">
